--- a/global_data/day_data/002828.xlsx
+++ b/global_data/day_data/002828.xlsx
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
